--- a/biology/Botanique/Parc_Palmer/Parc_Palmer.xlsx
+++ b/biology/Botanique/Parc_Palmer/Parc_Palmer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Palmer est un espace vert situé à Cenon, commune de la banlieue de Bordeaux, dans le sud-ouest de la France.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc, à flanc de colline, s'étend sur près de 25 hectares de prairies, de massifs floraux et de bosquets. Il offre une vue panoramique sur Bordeaux et son agglomération. C'est également un espace culturel et convivial, réunissant toutes les tranches d'âges et toutes les catégories socio-professionnelles. Il dispose de sentiers de promenade, d'équipements sportifs (terrains de rugby, piste d'athlétisme, tennis, maison des sports) et d'aires de jeux pour les enfants. Le Rocher de Palmer, espace culturel moderne, y a été aménagé. Le château abrite l'office culturel d'animation de Cenon et un vaste balcon-terrasse, porté par une série de colonnes jumelées, offrant une vue sur le parc environnant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc, à flanc de colline, s'étend sur près de 25 hectares de prairies, de massifs floraux et de bosquets. Il offre une vue panoramique sur Bordeaux et son agglomération. C'est également un espace culturel et convivial, réunissant toutes les tranches d'âges et toutes les catégories socio-professionnelles. Il dispose de sentiers de promenade, d'équipements sportifs (terrains de rugby, piste d'athlétisme, tennis, maison des sports) et d'aires de jeux pour les enfants. Le Rocher de Palmer, espace culturel moderne, y a été aménagé. Le château abrite l'office culturel d'animation de Cenon et un vaste balcon-terrasse, porté par une série de colonnes jumelées, offrant une vue sur le parc environnant.
 </t>
         </is>
       </c>
@@ -543,12 +557,49 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cet ancien domaine privé, acquis par la ville dans les années 1960, sert d'écrin au château Palmer, vaste demeure bourgeoise édifiée au XVIIIe siècle[2].En conséquence, cet espace verdoyant est baptisé parc Palmer, du nom d'un des anciens propriétaires du château, Charles Palmer, général de l'armée britannique et aide de camp du roi Georges IV[3]. Il achète le domaine en 1835[2].
-Le château Palmer
-Dans ce château du XIXe siècle qui a donné son nom au parc, sera prochainement installé un cinéma d'art et d'essai du réseau Utopia. Son ouverture est prévu pour le second semestre 2025[4].
-Le château Tranchère</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ancien domaine privé, acquis par la ville dans les années 1960, sert d'écrin au château Palmer, vaste demeure bourgeoise édifiée au XVIIIe siècle.En conséquence, cet espace verdoyant est baptisé parc Palmer, du nom d'un des anciens propriétaires du château, Charles Palmer, général de l'armée britannique et aide de camp du roi Georges IV. Il achète le domaine en 1835.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_Palmer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_Palmer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le château Palmer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce château du XIXe siècle qui a donné son nom au parc, sera prochainement installé un cinéma d'art et d'essai du réseau Utopia. Son ouverture est prévu pour le second semestre 2025.
+</t>
         </is>
       </c>
     </row>
